--- a/biology/Médecine/Sarcome_stromal_endométrial/Sarcome_stromal_endométrial.xlsx
+++ b/biology/Médecine/Sarcome_stromal_endométrial/Sarcome_stromal_endométrial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sarcome_stromal_endom%C3%A9trial</t>
+          <t>Sarcome_stromal_endométrial</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sarcome stromal endométrial représente moins de 10 % des sarcomes utérins.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sarcome_stromal_endom%C3%A9trial</t>
+          <t>Sarcome_stromal_endométrial</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,20 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Macroscopie
-Tumeur à développement endométrial et myométrial.
+          <t>Macroscopie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tumeur à développement endométrial et myométrial.
 La composante intra-endométriale est de consistance molle, de coloration blanc-grisâtre, polypoïde.
 La composante intra-myométriale a des limites imprécises, réalisant des nodules ou des cordons.
-Présence de bourgeons endo-lymphatiques.
-Microscopie
-Cellules identiques à celles du chorion endométrial à la phase proliférative.
-Moins de 10 mitoses /10 champs au fort grossissement mais parfois plus nombreuses.
-Présence de vaisseaux nombreux, à paroi épaisse et scléro-hyaline (en).
-Envahissement massif du myomètre avec emboles tumoraux lymphatiques et vasculaires possible.[réf. souhaitée]
-Immunohistochimie
-RO+
-RP+
-Néprilysine CD10+</t>
+Présence de bourgeons endo-lymphatiques.</t>
         </is>
       </c>
     </row>
@@ -536,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sarcome_stromal_endom%C3%A9trial</t>
+          <t>Sarcome_stromal_endométrial</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,21 +559,171 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Sarcome stromal endométrial de bas grade</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Microscopie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cellules identiques à celles du chorion endométrial à la phase proliférative.
+Moins de 10 mitoses /10 champs au fort grossissement mais parfois plus nombreuses.
+Présence de vaisseaux nombreux, à paroi épaisse et scléro-hyaline (en).
+Envahissement massif du myomètre avec emboles tumoraux lymphatiques et vasculaires possible.[réf. souhaitée]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sarcome_stromal_endométrial</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarcome_stromal_endom%C3%A9trial</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sarcome stromal endométrial de bas grade</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Immunohistochimie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>RO+
+RP+
+Néprilysine CD10+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sarcome_stromal_endométrial</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarcome_stromal_endom%C3%A9trial</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Sarcome stromal endométrial de haut grade (ou indifférencié)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Macroscopie
-Tumeur à développement endométrial et myométrial.
-Remaniements nécrotiques et hémorragiques.
-Microscopie
-Prolifération de cellules atypiques dont la morphologie rappelle peu celle des cellules du chorion endométrial.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Macroscopie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tumeur à développement endométrial et myométrial.
+Remaniements nécrotiques et hémorragiques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sarcome_stromal_endométrial</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarcome_stromal_endom%C3%A9trial</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sarcome stromal endométrial de haut grade (ou indifférencié)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Microscopie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Prolifération de cellules atypiques dont la morphologie rappelle peu celle des cellules du chorion endométrial.
 Noyaux denses et atypiques, nucléolés, volumineux.
 Activité mitotique &gt; 10 mitose /10 HPF.
-Infiltration anarchique et désordonnée du myomètre avec nécrose et hémorragie.
-Immunohistochimie
-RO-
+Infiltration anarchique et désordonnée du myomètre avec nécrose et hémorragie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sarcome_stromal_endométrial</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarcome_stromal_endom%C3%A9trial</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sarcome stromal endométrial de haut grade (ou indifférencié)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Immunohistochimie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>RO-
 RP-
 CD10+/-</t>
         </is>
